--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_06_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_06_beg.xlsx
@@ -1652,7 +1652,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="반란자 주민"]  월루몽드…… 아니, 라이타니엔 전체가 썩어빠졌어! 이제는 감염자를 불태워 죽이고 있으니, 조만간엔 가난한 사람들까지 모조리 불태워 죽이겠지!
+    <t xml:space="preserve">[name="반란자 주민"]  월루몽드…… 아니, 라이타니아 전체가 썩어빠졌어! 이제는 감염자를 불태워 죽이고 있으니, 조만간엔 가난한 사람들까지 모조리 불태워 죽이겠지!
 </t>
   </si>
   <si>
@@ -1832,7 +1832,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  세버린 호손 씨,  지금까지는 라이타니엔의 조치 덕분에 확실히 경계를 풀고 있었습니다만, 그래도 저는 정식으로 작전을 시작하기 전에, 당신에게 한 가지 물어야겠습니다……
+    <t xml:space="preserve">[name="폴리닉"]  세버린 호손 씨,  지금까지는 라이타니아의 조치 덕분에 확실히 경계를 풀고 있었습니다만, 그래도 저는 정식으로 작전을 시작하기 전에, 당신에게 한 가지 물어야겠습니다……
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_06_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_06_beg.xlsx
@@ -1344,7 +1344,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  On behalf of Wolumonde, can you guarantee that Wolumonde has not, in light of these exceptional circumstances, taken “additional measures” against the Infected population?
+    <t xml:space="preserve">[name="Folinic"]  On behalf of Wolumonde, can you guarantee that Wolumonde has not, in light of these exceptional circumstances, taken 'additional measures' against the Infected population?
 </t>
   </si>
   <si>
@@ -1408,7 +1408,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  Allow me to interject. I’d like to discuss that captive, who called himself “Reunion.”
+    <t xml:space="preserve">[name="Ayerscarpe"]  Allow me to interject. I’d like to discuss that captive, who called himself 'Reunion.'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_06_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_06_beg.xlsx
@@ -1028,11 +1028,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  (I can’t feel... my ankle.)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  (It’s so quiet. Where did everyone go?)
+    <t xml:space="preserve">[name="Tatjana"]  (I can't feel... my ankle.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  (It's so quiet. Where did everyone go?)
 </t>
   </si>
   <si>
@@ -1044,7 +1044,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  You’re awake.
+    <t xml:space="preserve">[name="GreyThroat"]  You're awake.
 </t>
   </si>
   <si>
@@ -1060,7 +1060,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  Huh? You... I know you. You’re from Rhodes Island.
+    <t xml:space="preserve">[name="Tatjana"]  Huh? You... I know you. You're from Rhodes Island.
 </t>
   </si>
   <si>
@@ -1076,7 +1076,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  Even at this point, you still don’t see them as the enemy.
+    <t xml:space="preserve">[name="GreyThroat"]  Even at this point, you still don't see them as the enemy.
 </t>
   </si>
   <si>
@@ -1092,7 +1092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  She’s fine. I sent another operator to help her. But...
+    <t xml:space="preserve">[name="GreyThroat"]  She's fine. I sent another operator to help her. But...
 </t>
   </si>
   <si>
@@ -1100,7 +1100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  ...Yes. I’m sorry.
+    <t xml:space="preserve">[name="Tatjana"]  ...Yes. I'm sorry.
 </t>
   </si>
   <si>
@@ -1108,7 +1108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  Just a few operators won’t be able to retake this neighborhood on their own. We should fall back to the town center and regroup.
+    <t xml:space="preserve">[name="Tatjana"]  Just a few operators won't be able to retake this neighborhood on their own. We should fall back to the town center and regroup.
 </t>
   </si>
   <si>
@@ -1132,7 +1132,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  So what happened to all the Gendarmerie? There isn’t a single one left in town.
+    <t xml:space="preserve">[name="GreyThroat"]  So what happened to all the Gendarmerie? There isn't a single one left in town.
 </t>
   </si>
   <si>
@@ -1140,7 +1140,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  Put down your weapon. Look at yourself. You don’t even have a decent set of clothes. You’re going to fight like that?
+    <t xml:space="preserve">[name="Ayerscarpe"]  Put down your weapon. Look at yourself. You don't even have a decent set of clothes. You're going to fight like that?
 </t>
   </si>
   <si>
@@ -1148,15 +1148,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Nothing. I’m not interested in your politics at all. But... are you a Winterwisp?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Winterwisp...? Hah. I’m not aboriginal, but I do acknowledge their struggle!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  How about you? Dr. Atro was a good person, but you? You’re just here to help them crush us!
+    <t xml:space="preserve">[name="Folinic"]  Nothing. I'm not interested in your politics at all. But... are you a Winterwisp?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Winterwisp...? Hah. I'm not aboriginal, but I do acknowledge their struggle!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  How about you? Dr. Atro was a good person, but you? You're just here to help them crush us!
 </t>
   </si>
   <si>
@@ -1168,11 +1168,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  Where’s your proof?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  There’s not a single Gendarmerie in Wolumonde! Not one!
+    <t xml:space="preserve">[name="Ayerscarpe"]  Where's your proof?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  There's not a single Gendarmerie in Wolumonde! Not one!
 </t>
   </si>
   <si>
@@ -1208,7 +1208,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  And how long do you think the aristocrats’ drunken revelries are gonna last? You wanna guess?
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  And how long do you think the aristocrats' drunken revelries are gonna last? You wanna guess?
 </t>
   </si>
   <si>
@@ -1220,15 +1220,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  So our Gendarmerie had to go stand around some fancy mansions to boost a fortunate son’s ego, and maybe keep out the riffraff. Isn’t that funny? Are you laughing?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Because I’m not.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  No, it’s not funny. But that still doesn’t give me any leads as to the fire.
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  So our Gendarmerie had to go stand around some fancy mansions to boost a fortunate son's ego, and maybe keep out the riffraff. Isn't that funny? Are you laughing?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Because I'm not.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  No, it's not funny. But that still doesn't give me any leads as to the fire.
 </t>
   </si>
   <si>
@@ -1236,7 +1236,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Think about it: who’s going to set fire to a medical camp that treats Infected? Would the Infected do that?
+    <t xml:space="preserve">[name="Rebellious Townsfolk"]  Think about it: who's going to set fire to a medical camp that treats Infected? Would the Infected do that?
 </t>
   </si>
   <si>
@@ -1252,7 +1252,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  There aren’t many of them...
+    <t xml:space="preserve">[name="Severin"]  There aren't many of them...
 </t>
   </si>
   <si>
@@ -1264,11 +1264,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  GreyThroat! Miss Tatjana! You’re back!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  And we’re going to make the murderer pay for their crimes.
+    <t xml:space="preserve">[name="Suzuran"]  GreyThroat! Miss Tatjana! You're back!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  And we're going to make the murderer pay for their crimes.
 </t>
   </si>
   <si>
@@ -1276,11 +1276,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  Uncle... I’m sorry. I was careless...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  No... All that matters is that you’re safe.
+    <t xml:space="preserve">[name="Tatjana"]  Uncle... I'm sorry. I was careless...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  No... All that matters is that you're safe.
 </t>
   </si>
   <si>
@@ -1296,19 +1296,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  ...I’ve got the gist of it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Do you think... If you were with her, that things would’ve turned out differently?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  Folinic, you shouldn’t—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  No. The myriad contradictions this crisis has revealed in Wolumonde can’t be solved by external forces. There is nothing we could’ve done.
+    <t xml:space="preserve">[name="GreyThroat"]  ...I've got the gist of it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Do you think... If you were with her, that things would've turned out differently?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ayerscarpe"]  Folinic, you shouldn't—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  No. The myriad contradictions this crisis has revealed in Wolumonde can't be solved by external forces. There is nothing we could've done.
 </t>
   </si>
   <si>
@@ -1316,7 +1316,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  I’m sorry. I’m sorry I wasn’t with her.
+    <t xml:space="preserve">[name="GreyThroat"]  I'm sorry. I'm sorry I wasn't with her.
 </t>
   </si>
   <si>
@@ -1324,7 +1324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  I’m the one who should be sorry.
+    <t xml:space="preserve">[name="Folinic"]  I'm the one who should be sorry.
 </t>
   </si>
   <si>
@@ -1368,11 +1368,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Um... well... I’m not sure! But I do believe him! He wouldn’t hurt Infected people!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Okay, Lisa. I’ll trust your instincts, for now.
+    <t xml:space="preserve">[name="Suzuran"]  Um... well... I'm not sure! But I do believe him! He wouldn't hurt Infected people!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Okay, Lisa. I'll trust your instincts, for now.
 </t>
   </si>
   <si>
@@ -1380,35 +1380,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Now, I’d like to hear your opinions on what to do next.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  I’m not as familiar with the field as Folinic. I followed her instructions during the operation.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  There aren’t a lot of them out there.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Counting those we have successfully subdued, there can’t be more than a hundred or so.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  A hundred or so rioters wouldn’t be able to terrorize Wolumonde under normal circumstances.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  As for the Gendarmerie, I’ve heard some interesting rumors.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  That was one of the very few unfortunate decisions I’ve made in my military career. We can’t do anything about it, so let’s shelve it for now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  Allow me to interject. I’d like to discuss that captive, who called himself 'Reunion.'
+    <t xml:space="preserve">[name="Severin"]  Now, I'd like to hear your opinions on what to do next.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  I'm not as familiar with the field as Folinic. I followed her instructions during the operation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  There aren't a lot of them out there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Counting those we have successfully subdued, there can't be more than a hundred or so.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  A hundred or so rioters wouldn't be able to terrorize Wolumonde under normal circumstances.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  As for the Gendarmerie, I've heard some interesting rumors.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  That was one of the very few unfortunate decisions I've made in my military career. We can't do anything about it, so let's shelve it for now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ayerscarpe"]  Allow me to interject. I'd like to discuss that captive, who called himself 'Reunion.'
 </t>
   </si>
   <si>
@@ -1420,7 +1420,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  He’s a battle-hardened warrior. And if he came with a squad, he could be a problem.
+    <t xml:space="preserve">[name="GreyThroat"]  He's a battle-hardened warrior. And if he came with a squad, he could be a problem.
 </t>
   </si>
   <si>
@@ -1456,7 +1456,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  This is the choice that decides the fate of Wolumonde. Thousands of lives hang in the balance. We can’t be hasty.
+    <t xml:space="preserve">[name="Severin"]  This is the choice that decides the fate of Wolumonde. Thousands of lives hang in the balance. We can't be hasty.
 </t>
   </si>
   <si>
@@ -1464,11 +1464,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Hm. But it looks like the other side won’t give us the chance.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  If Reunion really is here, there’s no need for a light touch.
+    <t xml:space="preserve">[name="Severin"]  Hm. But it looks like the other side won't give us the chance.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  If Reunion really is here, there's no need for a light touch.
 </t>
   </si>
   <si>
@@ -1476,7 +1476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  I’d rather get in there my—
+    <t xml:space="preserve">[name="Folinic"]  I'd rather get in there my—
 </t>
   </si>
   <si>
@@ -1496,11 +1496,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  If you keep fighting that hard, that aggressively, you won’t be you anymore.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Right... okay. I’ll... stay.
+    <t xml:space="preserve">[name="Suzuran"]  If you keep fighting that hard, that aggressively, you won't be you anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Right... okay. I'll... stay.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_06_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_06_beg.xlsx
@@ -1652,7 +1652,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="반란자 주민"]  월루몽드…… 아니, 라이타니아 전체가 썩어빠졌어! 이제는 감염자를 불태워 죽이고 있으니, 조만간엔 가난한 사람들까지 모조리 불태워 죽이겠지!
+    <t xml:space="preserve">[name="반란자 주민"]  월루몽드…… 아니, 라이타니엔 전체가 썩어빠졌어! 이제는 감염자를 불태워 죽이고 있으니, 조만간엔 가난한 사람들까지 모조리 불태워 죽이겠지!
 </t>
   </si>
   <si>
@@ -1832,7 +1832,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  세버린 호손 씨,  지금까지는 라이타니아의 조치 덕분에 확실히 경계를 풀고 있었습니다만, 그래도 저는 정식으로 작전을 시작하기 전에, 당신에게 한 가지 물어야겠습니다……
+    <t xml:space="preserve">[name="폴리닉"]  세버린 호손 씨,  지금까지는 라이타니엔의 조치 덕분에 확실히 경계를 풀고 있었습니다만, 그래도 저는 정식으로 작전을 시작하기 전에, 당신에게 한 가지 물어야겠습니다……
 </t>
   </si>
   <si>
